--- a/artfynd/Baksjökullen artfynd.xlsx
+++ b/artfynd/Baksjökullen artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:AY70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56822886</v>
+        <v>62983772</v>
       </c>
       <c r="B3" t="n">
-        <v>78739</v>
+        <v>90283</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>656345</v>
+        <v>656161</v>
       </c>
       <c r="R3" t="n">
-        <v>7122435</v>
+        <v>7122087</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -852,12 +852,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -868,36 +868,26 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62983772</v>
+        <v>56822886</v>
       </c>
       <c r="B4" t="n">
-        <v>90283</v>
+        <v>78739</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -905,21 +895,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -929,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>656161</v>
+        <v>656345</v>
       </c>
       <c r="R4" t="n">
-        <v>7122087</v>
+        <v>7122435</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,12 +949,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -975,26 +965,36 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56822924</v>
+        <v>126910130</v>
       </c>
       <c r="B5" t="n">
-        <v>90283</v>
+        <v>79569</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1962</v>
+        <v>229821</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655373</v>
+        <v>655841</v>
       </c>
       <c r="R5" t="n">
-        <v>7122472</v>
+        <v>7122800</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1072,58 +1072,48 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>mossig tallåga</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>122842</v>
+        <v>126910394</v>
       </c>
       <c r="B6" t="n">
-        <v>91506</v>
+        <v>78738</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1133,13 +1123,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655670</v>
+        <v>655885</v>
       </c>
       <c r="R6" t="n">
-        <v>7122038</v>
+        <v>7122738</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1163,12 +1153,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2004-07-15</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2004-07-15</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1183,44 +1173,44 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jonas F Grahn</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Per-anders Blomqvist, Pontus Wallén</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62983773</v>
+        <v>56822924</v>
       </c>
       <c r="B7" t="n">
-        <v>91819</v>
+        <v>90283</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>760</v>
+        <v>1962</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1230,10 +1220,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>656217</v>
+        <v>655373</v>
       </c>
       <c r="R7" t="n">
-        <v>7122135</v>
+        <v>7122472</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1260,12 +1250,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1276,26 +1266,36 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>mossig tallåga</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>62983768</v>
+        <v>126909344</v>
       </c>
       <c r="B8" t="n">
-        <v>80083</v>
+        <v>79569</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1303,21 +1303,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>656040</v>
+        <v>655890</v>
       </c>
       <c r="R8" t="n">
-        <v>7122384</v>
+        <v>7122814</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1357,12 +1357,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1377,22 +1377,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62983776</v>
+        <v>122842</v>
       </c>
       <c r="B9" t="n">
-        <v>91819</v>
+        <v>91506</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,21 +1400,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>760</v>
+        <v>65</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1424,13 +1424,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>656250</v>
+        <v>655670</v>
       </c>
       <c r="R9" t="n">
-        <v>7122172</v>
+        <v>7122038</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2004-07-15</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2004-07-15</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1468,51 +1468,50 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Jonas F Grahn</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Per-anders Blomqvist, Pontus Wallén</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62983774</v>
+        <v>62983773</v>
       </c>
       <c r="B10" t="n">
-        <v>80084</v>
+        <v>91819</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>760</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1522,10 +1521,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>656221</v>
+        <v>656217</v>
       </c>
       <c r="R10" t="n">
-        <v>7122131</v>
+        <v>7122135</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1584,10 +1583,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56822904</v>
+        <v>62983768</v>
       </c>
       <c r="B11" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,21 +1594,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1619,10 +1618,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>655838</v>
+        <v>656040</v>
       </c>
       <c r="R11" t="n">
-        <v>7122148</v>
+        <v>7122384</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1649,12 +1648,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1665,36 +1664,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56822923</v>
+        <v>126910226</v>
       </c>
       <c r="B12" t="n">
-        <v>80083</v>
+        <v>78739</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1702,21 +1691,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1726,10 +1715,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>655444</v>
+        <v>655873</v>
       </c>
       <c r="R12" t="n">
-        <v>7122458</v>
+        <v>7122775</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1756,12 +1745,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1772,33 +1761,23 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56822887</v>
+        <v>56822923</v>
       </c>
       <c r="B13" t="n">
         <v>80083</v>
@@ -1833,10 +1812,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>656369</v>
+        <v>655444</v>
       </c>
       <c r="R13" t="n">
-        <v>7122424</v>
+        <v>7122458</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1905,10 +1884,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56822883</v>
+        <v>56822887</v>
       </c>
       <c r="B14" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1916,21 +1895,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1940,10 +1919,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>656178</v>
+        <v>656369</v>
       </c>
       <c r="R14" t="n">
-        <v>7122513</v>
+        <v>7122424</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1994,7 +1973,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2012,10 +1991,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56822920</v>
+        <v>56822904</v>
       </c>
       <c r="B15" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2023,21 +2002,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2047,10 +2026,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>655502</v>
+        <v>655838</v>
       </c>
       <c r="R15" t="n">
-        <v>7122457</v>
+        <v>7122148</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2101,7 +2080,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2119,10 +2098,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>62983778</v>
+        <v>56822883</v>
       </c>
       <c r="B16" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2130,21 +2109,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2154,10 +2133,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>656374</v>
+        <v>656178</v>
       </c>
       <c r="R16" t="n">
-        <v>7122316</v>
+        <v>7122513</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2184,12 +2163,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2200,26 +2179,36 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>56822915</v>
+        <v>56822920</v>
       </c>
       <c r="B17" t="n">
-        <v>78980</v>
+        <v>78739</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2227,21 +2216,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2251,10 +2240,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>656022</v>
+        <v>655502</v>
       </c>
       <c r="R17" t="n">
-        <v>7122472</v>
+        <v>7122457</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2305,7 +2294,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2323,32 +2312,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>56822918</v>
+        <v>62983776</v>
       </c>
       <c r="B18" t="n">
-        <v>78739</v>
+        <v>91819</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>760</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2358,10 +2347,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>655672</v>
+        <v>656250</v>
       </c>
       <c r="R18" t="n">
-        <v>7122481</v>
+        <v>7122172</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2388,12 +2377,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2402,38 +2391,29 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>56822909</v>
+        <v>62983774</v>
       </c>
       <c r="B19" t="n">
-        <v>78386</v>
+        <v>80084</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2441,21 +2421,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6437</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2465,10 +2445,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>655953</v>
+        <v>656221</v>
       </c>
       <c r="R19" t="n">
-        <v>7122309</v>
+        <v>7122131</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2495,12 +2475,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2511,36 +2491,26 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>silverstubbe tall</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>62983775</v>
+        <v>126910403</v>
       </c>
       <c r="B20" t="n">
-        <v>80083</v>
+        <v>79569</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2548,21 +2518,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>229821</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2572,10 +2542,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>656243</v>
+        <v>655885</v>
       </c>
       <c r="R20" t="n">
-        <v>7122156</v>
+        <v>7122738</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2602,12 +2572,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2622,22 +2592,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56822910</v>
+        <v>62983778</v>
       </c>
       <c r="B21" t="n">
-        <v>78739</v>
+        <v>91245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2645,21 +2615,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2669,10 +2639,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>655949</v>
+        <v>656374</v>
       </c>
       <c r="R21" t="n">
-        <v>7122302</v>
+        <v>7122316</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2699,12 +2669,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2715,53 +2685,43 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56822889</v>
+        <v>56822915</v>
       </c>
       <c r="B22" t="n">
-        <v>80118</v>
+        <v>78980</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2776,10 +2736,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>656464</v>
+        <v>656022</v>
       </c>
       <c r="R22" t="n">
-        <v>7122355</v>
+        <v>7122472</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2830,7 +2790,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -2848,10 +2808,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>62983766</v>
+        <v>126905646</v>
       </c>
       <c r="B23" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2859,34 +2819,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Baksjökullen, Ås lm</t>
+          <t>Baksjön, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>656088</v>
+        <v>656789</v>
       </c>
       <c r="R23" t="n">
-        <v>7122471</v>
+        <v>7122441</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2913,12 +2873,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2933,22 +2893,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56822929</v>
+        <v>62983775</v>
       </c>
       <c r="B24" t="n">
-        <v>78739</v>
+        <v>80083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2956,21 +2916,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2980,10 +2940,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>655769</v>
+        <v>656243</v>
       </c>
       <c r="R24" t="n">
-        <v>7122718</v>
+        <v>7122156</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3010,12 +2970,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3026,36 +2986,26 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56822911</v>
+        <v>56822918</v>
       </c>
       <c r="B25" t="n">
-        <v>80083</v>
+        <v>78739</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,21 +3013,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3087,10 +3037,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>656040</v>
+        <v>655672</v>
       </c>
       <c r="R25" t="n">
-        <v>7122380</v>
+        <v>7122481</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3141,7 +3091,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3159,10 +3109,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56822878</v>
+        <v>56822909</v>
       </c>
       <c r="B26" t="n">
-        <v>78738</v>
+        <v>78386</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3170,21 +3120,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3194,10 +3144,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>655922</v>
+        <v>655953</v>
       </c>
       <c r="R26" t="n">
-        <v>7122709</v>
+        <v>7122309</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3248,7 +3198,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverstubbe tall</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3266,32 +3216,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56822885</v>
+        <v>56822889</v>
       </c>
       <c r="B27" t="n">
-        <v>78738</v>
+        <v>80118</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6446</v>
+        <v>6463</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3301,10 +3251,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>656345</v>
+        <v>656464</v>
       </c>
       <c r="R27" t="n">
-        <v>7122435</v>
+        <v>7122355</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3355,7 +3305,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3373,10 +3323,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56822919</v>
+        <v>56822910</v>
       </c>
       <c r="B28" t="n">
-        <v>91167</v>
+        <v>78739</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3384,21 +3334,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3242</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3408,10 +3358,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>655532</v>
+        <v>655949</v>
       </c>
       <c r="R28" t="n">
-        <v>7122426</v>
+        <v>7122302</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3462,7 +3412,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>gammal törvedslåga</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3480,10 +3430,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56822928</v>
+        <v>62983766</v>
       </c>
       <c r="B29" t="n">
-        <v>79598</v>
+        <v>78980</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3491,21 +3441,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3515,10 +3465,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>655676</v>
+        <v>656088</v>
       </c>
       <c r="R29" t="n">
-        <v>7122665</v>
+        <v>7122471</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3545,12 +3495,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3561,33 +3511,23 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56822927</v>
+        <v>56822929</v>
       </c>
       <c r="B30" t="n">
         <v>78739</v>
@@ -3622,10 +3562,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>655676</v>
+        <v>655769</v>
       </c>
       <c r="R30" t="n">
-        <v>7122665</v>
+        <v>7122718</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3694,7 +3634,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>62983767</v>
+        <v>56822878</v>
       </c>
       <c r="B31" t="n">
         <v>78738</v>
@@ -3729,10 +3669,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>656085</v>
+        <v>655922</v>
       </c>
       <c r="R31" t="n">
-        <v>7122458</v>
+        <v>7122709</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3759,12 +3699,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3775,26 +3715,36 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56822905</v>
+        <v>56822885</v>
       </c>
       <c r="B32" t="n">
-        <v>78980</v>
+        <v>78738</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3802,21 +3752,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3826,10 +3776,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>655714</v>
+        <v>656345</v>
       </c>
       <c r="R32" t="n">
-        <v>7122181</v>
+        <v>7122435</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3880,7 +3830,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>gran, ymnigt</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -3898,7 +3848,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56822921</v>
+        <v>56822911</v>
       </c>
       <c r="B33" t="n">
         <v>80083</v>
@@ -3933,10 +3883,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>655458</v>
+        <v>656040</v>
       </c>
       <c r="R33" t="n">
-        <v>7122461</v>
+        <v>7122380</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4005,10 +3955,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56822879</v>
+        <v>126910294</v>
       </c>
       <c r="B34" t="n">
-        <v>78386</v>
+        <v>78980</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4016,21 +3966,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4040,10 +3990,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>656112</v>
+        <v>655845</v>
       </c>
       <c r="R34" t="n">
-        <v>7122629</v>
+        <v>7122750</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4070,12 +4020,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4086,36 +4036,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>silverstubbe tall</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>56822880</v>
+        <v>56822919</v>
       </c>
       <c r="B35" t="n">
-        <v>78739</v>
+        <v>91167</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4123,21 +4063,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>228912</v>
+        <v>3242</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4147,10 +4087,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>656129</v>
+        <v>655532</v>
       </c>
       <c r="R35" t="n">
-        <v>7122615</v>
+        <v>7122426</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4201,7 +4141,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal törvedslåga</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4219,32 +4159,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>62983777</v>
+        <v>56822928</v>
       </c>
       <c r="B36" t="n">
-        <v>80118</v>
+        <v>79598</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6463</v>
+        <v>6453</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4254,10 +4194,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>656305</v>
+        <v>655676</v>
       </c>
       <c r="R36" t="n">
-        <v>7122265</v>
+        <v>7122665</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4284,12 +4224,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4300,48 +4240,58 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>62983764</v>
+        <v>56822927</v>
       </c>
       <c r="B37" t="n">
-        <v>92535</v>
+        <v>78739</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4351,10 +4301,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>656272</v>
+        <v>655676</v>
       </c>
       <c r="R37" t="n">
-        <v>7122566</v>
+        <v>7122665</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4381,12 +4331,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4397,26 +4347,36 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>56822881</v>
+        <v>62983767</v>
       </c>
       <c r="B38" t="n">
-        <v>79598</v>
+        <v>78738</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4424,21 +4384,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4448,10 +4408,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>656129</v>
+        <v>656085</v>
       </c>
       <c r="R38" t="n">
-        <v>7122615</v>
+        <v>7122458</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4478,12 +4438,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4494,33 +4454,23 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56822902</v>
+        <v>56822905</v>
       </c>
       <c r="B39" t="n">
         <v>78980</v>
@@ -4555,10 +4505,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>656126</v>
+        <v>655714</v>
       </c>
       <c r="R39" t="n">
-        <v>7122070</v>
+        <v>7122181</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4609,7 +4559,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran, ymnigt</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -4627,7 +4577,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>56822888</v>
+        <v>56822921</v>
       </c>
       <c r="B40" t="n">
         <v>80083</v>
@@ -4662,10 +4612,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>656464</v>
+        <v>655458</v>
       </c>
       <c r="R40" t="n">
-        <v>7122355</v>
+        <v>7122461</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4734,32 +4684,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>56822914</v>
+        <v>62983764</v>
       </c>
       <c r="B41" t="n">
-        <v>78739</v>
+        <v>92535</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4769,10 +4719,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>656049</v>
+        <v>656272</v>
       </c>
       <c r="R41" t="n">
-        <v>7122458</v>
+        <v>7122566</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4799,12 +4749,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4815,58 +4765,48 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>62983761</v>
+        <v>62983777</v>
       </c>
       <c r="B42" t="n">
-        <v>92571</v>
+        <v>80118</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5966</v>
+        <v>6463</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4876,10 +4816,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>656385</v>
+        <v>656305</v>
       </c>
       <c r="R42" t="n">
-        <v>7122632</v>
+        <v>7122265</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4938,32 +4878,32 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>62983765</v>
+        <v>56822879</v>
       </c>
       <c r="B43" t="n">
-        <v>91406</v>
+        <v>78386</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1503</v>
+        <v>6437</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4973,10 +4913,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>656111</v>
+        <v>656112</v>
       </c>
       <c r="R43" t="n">
-        <v>7122537</v>
+        <v>7122629</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5003,12 +4943,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5020,27 +4960,32 @@
       <c r="AG43" t="b">
         <v>0</v>
       </c>
-      <c r="AS43" t="inlineStr">
-        <is>
-          <t>Gudrun Norstedt</t>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>silverstubbe tall</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56822916</v>
+        <v>56822880</v>
       </c>
       <c r="B44" t="n">
         <v>78739</v>
@@ -5075,10 +5020,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>655723</v>
+        <v>656129</v>
       </c>
       <c r="R44" t="n">
-        <v>7122474</v>
+        <v>7122615</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5147,10 +5092,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56822913</v>
+        <v>56822914</v>
       </c>
       <c r="B45" t="n">
-        <v>78738</v>
+        <v>78739</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5158,21 +5103,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5254,10 +5199,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56822884</v>
+        <v>56822888</v>
       </c>
       <c r="B46" t="n">
-        <v>78739</v>
+        <v>80083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5265,21 +5210,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5289,10 +5234,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>656182</v>
+        <v>656464</v>
       </c>
       <c r="R46" t="n">
-        <v>7122510</v>
+        <v>7122355</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5343,7 +5288,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5361,32 +5306,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56822912</v>
+        <v>56822881</v>
       </c>
       <c r="B47" t="n">
-        <v>80119</v>
+        <v>79598</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6464</v>
+        <v>6453</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5396,10 +5341,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>656040</v>
+        <v>656129</v>
       </c>
       <c r="R47" t="n">
-        <v>7122380</v>
+        <v>7122615</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5450,7 +5395,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -5468,10 +5413,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>62983763</v>
+        <v>56822902</v>
       </c>
       <c r="B48" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5479,21 +5424,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5503,10 +5448,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>656289</v>
+        <v>656126</v>
       </c>
       <c r="R48" t="n">
-        <v>7122600</v>
+        <v>7122070</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5533,12 +5478,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5549,61 +5494,71 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>62983769</v>
+        <v>126905615</v>
       </c>
       <c r="B49" t="n">
-        <v>92535</v>
+        <v>79569</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Baksjökullen, Ås lm</t>
+          <t>Baksjön, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>656131</v>
+        <v>656822</v>
       </c>
       <c r="R49" t="n">
-        <v>7122070</v>
+        <v>7122398</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5630,12 +5585,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5650,44 +5605,44 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Julia Pettersson</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>62983762</v>
+        <v>62983761</v>
       </c>
       <c r="B50" t="n">
-        <v>91406</v>
+        <v>92571</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1503</v>
+        <v>5966</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5697,10 +5652,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>656305</v>
+        <v>656385</v>
       </c>
       <c r="R50" t="n">
-        <v>7122615</v>
+        <v>7122632</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5743,11 +5698,6 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
-      </c>
-      <c r="AS50" t="inlineStr">
-        <is>
-          <t>Gudrun Norstedt</t>
-        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
@@ -5764,32 +5714,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56822907</v>
+        <v>62983765</v>
       </c>
       <c r="B51" t="n">
-        <v>78980</v>
+        <v>91406</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>1503</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5799,10 +5749,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>655737</v>
+        <v>656111</v>
       </c>
       <c r="R51" t="n">
-        <v>7122264</v>
+        <v>7122537</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5829,12 +5779,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5846,32 +5796,27 @@
       <c r="AG51" t="b">
         <v>0</v>
       </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>tall</t>
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>Gudrun Norstedt</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56822906</v>
+        <v>56822916</v>
       </c>
       <c r="B52" t="n">
         <v>78739</v>
@@ -5906,10 +5851,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>655701</v>
+        <v>655723</v>
       </c>
       <c r="R52" t="n">
-        <v>7122282</v>
+        <v>7122474</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5978,32 +5923,32 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56822925</v>
+        <v>56822884</v>
       </c>
       <c r="B53" t="n">
-        <v>92535</v>
+        <v>78739</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6013,10 +5958,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>655554</v>
+        <v>656182</v>
       </c>
       <c r="R53" t="n">
-        <v>7122621</v>
+        <v>7122510</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6063,6 +6008,11 @@
       <c r="AI53" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -6080,10 +6030,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>56822901</v>
+        <v>56822913</v>
       </c>
       <c r="B54" t="n">
-        <v>78980</v>
+        <v>78738</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6091,21 +6041,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6115,10 +6065,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>656205</v>
+        <v>656049</v>
       </c>
       <c r="R54" t="n">
-        <v>7122096</v>
+        <v>7122458</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6169,7 +6119,7 @@
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -6187,45 +6137,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>126777285</v>
+        <v>56822912</v>
       </c>
       <c r="B55" t="n">
-        <v>78647</v>
+        <v>80119</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>353</v>
+        <v>6464</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Norrfors, Ås lm</t>
+          <t>Baksjökullen, Ås lm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>655991</v>
+        <v>656040</v>
       </c>
       <c r="R55" t="n">
-        <v>7122898</v>
+        <v>7122380</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6252,12 +6202,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2015-05-18</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2015-10-30</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6269,40 +6219,35 @@
       <c r="AG55" t="b">
         <v>0</v>
       </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62983771</v>
+        <v>62983763</v>
       </c>
       <c r="B56" t="n">
-        <v>92560</v>
+        <v>78739</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6310,21 +6255,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3100</v>
+        <v>228912</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellodon fuligineoalbus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(J.C.Schmidt) Baird</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6334,10 +6279,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>656135</v>
+        <v>656289</v>
       </c>
       <c r="R56" t="n">
-        <v>7122069</v>
+        <v>7122600</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6396,32 +6341,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56822877</v>
+        <v>62983769</v>
       </c>
       <c r="B57" t="n">
-        <v>91530</v>
+        <v>92535</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>71</v>
+        <v>4364</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6431,10 +6376,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>655926</v>
+        <v>656131</v>
       </c>
       <c r="R57" t="n">
-        <v>7122732</v>
+        <v>7122070</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6461,12 +6406,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6477,58 +6422,48 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>mossig tallåga</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56822922</v>
+        <v>56822925</v>
       </c>
       <c r="B58" t="n">
-        <v>91819</v>
+        <v>92535</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>760</v>
+        <v>4364</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6538,10 +6473,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>655444</v>
+        <v>655554</v>
       </c>
       <c r="R58" t="n">
-        <v>7122458</v>
+        <v>7122621</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6588,11 +6523,6 @@
       <c r="AI58" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>sälg</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -6610,32 +6540,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56822882</v>
+        <v>56822901</v>
       </c>
       <c r="B59" t="n">
-        <v>91406</v>
+        <v>78980</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1503</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6645,10 +6575,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>656169</v>
+        <v>656205</v>
       </c>
       <c r="R59" t="n">
-        <v>7122528</v>
+        <v>7122096</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6699,7 +6629,7 @@
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>mossig tallåga</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -6717,10 +6647,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>56822917</v>
+        <v>56822907</v>
       </c>
       <c r="B60" t="n">
-        <v>79598</v>
+        <v>78980</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6728,21 +6658,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6752,10 +6682,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>655723</v>
+        <v>655737</v>
       </c>
       <c r="R60" t="n">
-        <v>7122474</v>
+        <v>7122264</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6806,7 +6736,7 @@
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -6824,10 +6754,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>56822908</v>
+        <v>56822906</v>
       </c>
       <c r="B61" t="n">
-        <v>78980</v>
+        <v>78739</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6835,21 +6765,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6859,10 +6789,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>655835</v>
+        <v>655701</v>
       </c>
       <c r="R61" t="n">
-        <v>7122259</v>
+        <v>7122282</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6913,7 +6843,7 @@
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -6928,6 +6858,959 @@
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62983762</v>
+      </c>
+      <c r="B62" t="n">
+        <v>91406</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Gräddporing</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Sidera lenis</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Baksjökullen, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>656305</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7122615</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2016-10-12</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2016-10-12</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>Gudrun Norstedt</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Julia Pettersson</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>126777285</v>
+      </c>
+      <c r="B63" t="n">
+        <v>78647</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>353</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Dvärgbägarlav</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Cladonia parasitica</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Norrfors, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>655991</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7122898</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56822877</v>
+      </c>
+      <c r="B64" t="n">
+        <v>91530</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>71</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Urskogsporing</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Neoantrodia infirma</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Renvall &amp; Niemelä) Audet</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Baksjökullen, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>655926</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7122732</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>mossig tallåga</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56822917</v>
+      </c>
+      <c r="B65" t="n">
+        <v>79598</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Baksjökullen, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>655723</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7122474</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56822882</v>
+      </c>
+      <c r="B66" t="n">
+        <v>91406</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Gräddporing</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Sidera lenis</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Baksjökullen, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>656169</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7122528</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>mossig tallåga</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56822922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>91819</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>760</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Baksjökullen, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>655444</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7122458</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>62983771</v>
+      </c>
+      <c r="B68" t="n">
+        <v>92560</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Phellodon fuligineoalbus</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(J.C.Schmidt) Baird</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Baksjökullen, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>656135</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7122069</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2016-10-12</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2016-10-12</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Julia Pettersson</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Julia Pettersson, Anna Hallmén, Åsa Stenman, Henrik Sporrong, Sören Uppsäll, Lena Lundevaller</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56822908</v>
+      </c>
+      <c r="B69" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Baksjökullen, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>655835</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7122259</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>126906851</v>
+      </c>
+      <c r="B70" t="n">
+        <v>56852</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>102613</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Orre</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Lyrurus tetrix</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Baksjön, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>656623</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7122802</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Åsele</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Fredrika</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Nicklas Gustavsson</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Nicklas Gustavsson</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
